--- a/graficas/graph_data.xlsx
+++ b/graficas/graph_data.xlsx
@@ -276,6 +276,56 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>123</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3810000" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>143</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3810000" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 

--- a/graficas/graph_data.xlsx
+++ b/graficas/graph_data.xlsx
@@ -326,6 +326,56 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>163</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3810000" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>183</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3810000" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
